--- a/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Occitanie/Pandémie_de_Covid-19_en_Occitanie.xlsx
+++ b/medicine/Maladies infectieuses/Pandémie_de_Covid-19_en_Occitanie/Pandémie_de_Covid-19_en_Occitanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Occitanie</t>
+          <t>Pandémie_de_Covid-19_en_Occitanie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente la situation en ce qui concerne la pandémie de maladie à coronavirus de 2019-2020 (COVID-19) en Occitanie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Occitanie</t>
+          <t>Pandémie_de_Covid-19_en_Occitanie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,8 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nouveaux cas quotidiens
-Statistiques par départements</t>
+          <t>Nouveaux cas quotidiens</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
@@ -524,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Occitanie</t>
+          <t>Pandémie_de_Covid-19_en_Occitanie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hérault
-Le 11 mars, le préfet de l'Hérault a décidé la fermeture de tous les établissements scolaires, toutes les crèches et toutes les structures accueillant des enfants de moins de 15 ans, sur le territoire de 16 communes au nord et à l'est de Montpellier[3].
-Couvre-feu
-Les métropoles de Toulouse et de Montpellier font partie des territoires français soumis au couvre-feu décrété par le gouvernement à compter du 17 octobre 2020.
+          <t>Hérault</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 11 mars, le préfet de l'Hérault a décidé la fermeture de tous les établissements scolaires, toutes les crèches et toutes les structures accueillant des enfants de moins de 15 ans, sur le territoire de 16 communes au nord et à l'est de Montpellier.
 </t>
         </is>
       </c>
@@ -558,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Occitanie</t>
+          <t>Pandémie_de_Covid-19_en_Occitanie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +594,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mesures locales</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Couvre-feu</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les métropoles de Toulouse et de Montpellier font partie des territoires français soumis au couvre-feu décrété par le gouvernement à compter du 17 octobre 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pandémie_de_Covid-19_en_Occitanie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pand%C3%A9mie_de_Covid-19_en_Occitanie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Seconde vague</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En octobre 2020, tous les départements en Occitanie ont dépassé le seuil d’alerte de 50 cas de contamination pour 100 000 habitants. 
-Au 16 octobre 2020, Montpellier compte au moins 200 cas pour 100 000 habitants chez les plus de 65 ans[4].
+Au 16 octobre 2020, Montpellier compte au moins 200 cas pour 100 000 habitants chez les plus de 65 ans.
 </t>
         </is>
       </c>
